--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -480,6 +480,46 @@
   </si>
   <si>
     <t>딜레이는 send 함수에서 sleep 함수로 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 코드 수정 =&gt; git add =&gt; git commit =&gt; git push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) VM에서 git pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) VM 에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/migration 폴더 안의 sudo-clear-files.sh 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/git.../src 폴어 안에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo sh sudo-ap-trf-clear.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo sh sudo-ap-trf-용량선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh build-img 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo sh sudo-run-ap-? &lt;프로필번호&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,6 +737,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1020,39 +1061,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:F23"/>
+  <dimension ref="B4:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="10" max="10" width="3.25" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="K8" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>111</v>
       </c>
@@ -1066,8 +1145,11 @@
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>112</v>
       </c>
@@ -1082,7 +1164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>121</v>
       </c>
@@ -1097,7 +1179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>122</v>
       </c>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -520,6 +520,10 @@
   </si>
   <si>
     <t>sudo sh sudo-run-ap-? &lt;프로필번호&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) AP-1에서 AP-2로 scp 명령 한번 쓰고, 패스워드 묻는지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1064,7 +1068,7 @@
   <dimension ref="B4:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1162,6 +1166,9 @@
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -524,6 +524,18 @@
   </si>
   <si>
     <t>4) AP-1에서 AP-2로 scp 명령 한번 쓰고, 패스워드 묻는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root 계정으로 ssh-copy-id -f daniel@VM2 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) VM1 에서...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel 계정으로 ssh-copy-id -f daniel@VM2 주소 실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1185,6 +1197,9 @@
       <c r="F15" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
@@ -1194,8 +1209,11 @@
         <v>3</v>
       </c>
       <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>211</v>
       </c>
@@ -1203,8 +1221,11 @@
         <v>4</v>
       </c>
       <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>212</v>
       </c>
@@ -1213,7 +1234,7 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>221</v>
       </c>
@@ -1222,7 +1243,7 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>222</v>
       </c>
@@ -1231,13 +1252,13 @@
       </c>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="2:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>28</v>
       </c>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -536,6 +536,26 @@
   </si>
   <si>
     <t>daniel 계정으로 ssh-copy-id -f daniel@VM2 주소 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN 에서 VM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스에서 VM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트북에서 USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무용PC에서 로거/컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; 딜레이값이 불안정한것이 wireless conn 때문이라고?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L23"/>
+  <dimension ref="B4:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1261,6 +1281,29 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -547,15 +547,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노트북에서 USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무용PC에서 로거/컨트롤러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; 딜레이값이 불안정한것이 wireless conn 때문이라고?</t>
+    <t>사무용PC에서 로거/컨트롤러/사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L28"/>
+  <dimension ref="B4:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1296,14 +1288,6 @@
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>45</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="총정리" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -550,12 +550,40 @@
     <t>사무용PC에서 로거/컨트롤러/사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>(MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,16 +642,43 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -711,11 +766,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,13 +829,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1091,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1126,7 +1209,7 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1312,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1421,15 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,83 +1437,115 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
+      <c r="B6" s="22">
         <v>111</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="22">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
+      <c r="D6" s="16">
+        <v>909</v>
+      </c>
+      <c r="E6" s="17">
+        <v>930</v>
+      </c>
+      <c r="F6" s="17">
+        <v>29</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="19">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="17">
         <v>50</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
+      <c r="B7" s="22">
         <v>111</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="22">
         <v>2</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
+      <c r="D7" s="16">
+        <v>909</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="17">
+        <v>29</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="19">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17">
         <v>50</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="16">
+      <c r="B8" s="22">
         <v>111</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="22">
         <v>3</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
+      <c r="D8" s="16">
+        <v>909</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="19">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="17">
         <v>50</v>
       </c>
       <c r="K8" s="1"/>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -578,12 +578,32 @@
     <t>n/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;실험환경 구성&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트북을 유선연결 하고 로거/컨트/사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +672,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -785,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -802,25 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,6 +855,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,6 +929,48 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="4981575" cy="1438478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="45041"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="2038350"/>
+          <a:ext cx="4981575" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L27"/>
+  <dimension ref="B4:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1282,7 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1246,10 +1319,10 @@
       <c r="B13" s="2">
         <v>111</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="2">
         <v>1</v>
       </c>
@@ -1264,14 +1337,14 @@
       <c r="B14" s="3">
         <v>112</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J14" t="s">
@@ -1282,14 +1355,14 @@
       <c r="B15" s="3">
         <v>121</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="4">
         <v>3</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
@@ -1300,10 +1373,10 @@
       <c r="B16" s="3">
         <v>122</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="19"/>
       <c r="K16" t="s">
         <v>40</v>
       </c>
@@ -1312,10 +1385,10 @@
       <c r="B17" s="3">
         <v>211</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="19"/>
       <c r="J17" t="s">
         <v>39</v>
       </c>
@@ -1324,28 +1397,28 @@
       <c r="B18" s="3">
         <v>212</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>221</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>222</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -1359,18 +1432,37 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1488,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1437,115 +1529,115 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="22">
+      <c r="B6" s="15">
         <v>111</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="10">
         <v>909</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="11">
         <v>930</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <v>29</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="11">
         <v>50</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="22">
+      <c r="B7" s="15">
         <v>111</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="10">
         <v>909</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <v>29</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
         <v>50</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="22">
+      <c r="B8" s="15">
         <v>111</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="15">
         <v>3</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="10">
         <v>909</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="19">
+      <c r="G8" s="11"/>
+      <c r="H8" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <v>50</v>
       </c>
       <c r="K8" s="1"/>
@@ -1559,7 +1651,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="1"/>
@@ -1573,7 +1665,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="1"/>
@@ -1608,6 +1700,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -342,6 +342,63 @@
             <charset val="129"/>
           </rPr>
           <t>살펴봄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무조건</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1MB </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가정</t>
         </r>
       </text>
     </comment>
@@ -350,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -413,10 +470,6 @@
   </si>
   <si>
     <t>(FC,DC) 체크포인트 크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(LR) 로그 파일 크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -598,12 +651,36 @@
     <t>192.168.0.106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>리플레이 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(LR) 로그 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +762,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -951,7 +1036,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1260,22 +1345,22 @@
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -1283,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -1291,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -1299,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -1307,12 +1392,12 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -1330,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1348,7 +1433,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1366,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -1378,7 +1463,7 @@
       </c>
       <c r="D16" s="19"/>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -1390,7 +1475,7 @@
       </c>
       <c r="D17" s="19"/>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -1423,46 +1508,46 @@
     <row r="21" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1485,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1497,40 +1582,52 @@
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="15" t="s">
@@ -1543,20 +1640,23 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>111</v>
       </c>
@@ -1573,20 +1673,21 @@
         <v>29</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="13">
+        <v>50</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="J6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="11">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
         <v>111</v>
       </c>
@@ -1597,24 +1698,25 @@
         <v>909</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="11">
         <v>29</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="13">
+        <v>51</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <v>111</v>
       </c>
@@ -1625,24 +1727,29 @@
         <v>909</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="11">
-        <v>50</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1651,12 +1758,13 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1665,12 +1773,13 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+      <c r="K10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1681,8 +1790,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1693,6 +1803,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1700,7 +1811,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -342,6 +342,262 @@
             <charset val="129"/>
           </rPr>
           <t>살펴봄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">du </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어려워서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> diff </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮길</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [tar -cvf xxx.tar </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">] </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과임</t>
         </r>
       </text>
     </comment>
@@ -1573,7 +1829,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1710,7 +1966,9 @@
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11">
+        <v>22</v>
+      </c>
       <c r="K7" s="11">
         <v>50</v>
       </c>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -1320,6 +1320,92 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="2266950"/>
+          <a:ext cx="3105150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>VM1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에서만 대역폭을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>10MB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>로 설정</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(VM2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>대역폭은 상관없지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1829,7 +1915,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="총정리" sheetId="1" r:id="rId1"/>
     <sheet name="111X" sheetId="2" r:id="rId2"/>
+    <sheet name="112X" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -345,6 +346,905 @@
         </r>
       </text>
     </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VM1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경해주면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (VM2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관없지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">du </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어려워서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> diff </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮길</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [tar -cvf xxx.tar </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">] </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과임</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무조건</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1MB </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가정</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker images' </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> read-only layers</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>크기</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FC </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마이그레이션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도커</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (read-only + writable layers)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker stats &lt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컨테이너</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&gt;'</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메모리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용량</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>살펴봄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VM1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경해주면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (VM2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관없지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -663,7 +1563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -929,6 +1829,14 @@
   </si>
   <si>
     <t>(MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대역폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MB/s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1151,11 +2059,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1220,6 +2165,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,24 +2277,122 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5915025" y="2266950"/>
+          <a:off x="5819775" y="2076450"/>
+          <a:ext cx="1952625" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>초에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>handoff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>발생</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>200</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>간 실험</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2257425"/>
           <a:ext cx="3105150" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1370,37 +2422,253 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>VM1</a:t>
+            <a:t>LR </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>에서만 대역폭을 </a:t>
+            <a:t>할때 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>10MB</a:t>
+            <a:t>AP</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>로 설정</a:t>
+            <a:t>를 종료하면 도커에서 오류가 발생하는데</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>실험에는 지장 없음 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="45041"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="2038350"/>
+          <a:ext cx="4981575" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="2076450"/>
+          <a:ext cx="1952625" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>초에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>handoff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>발생</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>간</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> 실험</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2257425"/>
+          <a:ext cx="3105150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>(VM2 </a:t>
+            <a:t>LR </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>대역폭은 상관없지</a:t>
+            <a:t>할때 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>)</a:t>
+            <a:t>AP</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 종료하면 도커에서 오류가 발생하는데</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>실험에는 지장 없음 </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1675,7 +2943,7 @@
   <dimension ref="B4:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1914,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1965,7 +3233,9 @@
       <c r="K4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
@@ -1996,7 +3266,9 @@
       <c r="K5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
@@ -2027,7 +3299,9 @@
       <c r="K6" s="11">
         <v>50</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="25">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
@@ -2058,7 +3332,7 @@
       <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
@@ -2091,7 +3365,7 @@
       <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -2150,8 +3424,267 @@
       <c r="L12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L6:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>111</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>909</v>
+      </c>
+      <c r="E6" s="11">
+        <v>930</v>
+      </c>
+      <c r="F6" s="11">
+        <v>28</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="11">
+        <v>50</v>
+      </c>
+      <c r="L6" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>111</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>909</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="11">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J7" s="11">
+        <v>22</v>
+      </c>
+      <c r="K7" s="11">
+        <v>50</v>
+      </c>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>111</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>909</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="11">
+        <v>50</v>
+      </c>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L6:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="총정리" sheetId="1" r:id="rId1"/>
@@ -3182,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3440,7 +3440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="총정리" sheetId="1" r:id="rId1"/>
     <sheet name="111X" sheetId="2" r:id="rId2"/>
     <sheet name="112X" sheetId="3" r:id="rId3"/>
+    <sheet name="121X" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1562,8 +1563,779 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker images' </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> read-only layers</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>크기</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FC </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마이그레이션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도커</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (read-only + writable layers)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker stats &lt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컨테이너</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&gt;'</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메모리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용량</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>살펴봄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VM1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경해주면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (VM2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관없지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">du </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어려워서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> diff </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮길</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [tar -cvf xxx.tar </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">] </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과임</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무조건</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1MB </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가정</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -1837,6 +2609,14 @@
   </si>
   <si>
     <t>(MB/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a (이후로는 FC는 실험 안함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(truncate)+나머지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1956,7 +2736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2096,11 +2876,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2174,6 +3030,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2677,6 +3554,393 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="-1" b="2002"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="1905000"/>
+          <a:ext cx="4981575" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="2076450"/>
+          <a:ext cx="1952625" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>초에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>handoff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>발생</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>간</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> 실험</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2257425"/>
+          <a:ext cx="3105150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>LR </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>할때 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 종료하면 도커에서 오류가 발생하는데</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>실험에는 지장 없음 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1581149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="987027" y="3040857"/>
+          <a:ext cx="2505075" cy="233362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="2543175"/>
+          <a:ext cx="2505075" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1581151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="2714625"/>
+          <a:ext cx="1609726" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2943,7 +4207,7 @@
   <dimension ref="B4:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3182,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3326,8 +4590,8 @@
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="11">
-        <v>22</v>
+      <c r="J7" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
@@ -3441,7 +4705,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3584,8 +4848,8 @@
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="11">
-        <v>22</v>
+      <c r="J7" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
@@ -3692,4 +4956,262 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>111</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>111</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>909</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="11">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="11">
+        <v>50</v>
+      </c>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>111</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>909</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>10</v>
+      </c>
+      <c r="I8" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="11">
+        <v>50</v>
+      </c>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="33">
+        <v>121</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -2335,7 +2335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -2956,7 +2956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3051,6 +3051,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4207,7 +4216,7 @@
   <dimension ref="B4:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4444,10 +4453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4535,7 +4544,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+      <c r="B6" s="35">
         <v>111</v>
       </c>
       <c r="C6" s="15">
@@ -4568,9 +4577,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="15">
-        <v>111</v>
-      </c>
+      <c r="B7" s="36"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -4599,9 +4606,7 @@
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
-        <v>111</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -4687,10 +4692,22 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
+    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>111</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="L6:L8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4702,10 +4719,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4793,8 +4810,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
-        <v>111</v>
+      <c r="B6" s="35">
+        <v>112</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
@@ -4826,9 +4843,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="15">
-        <v>111</v>
-      </c>
+      <c r="B7" s="36"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -4857,9 +4872,7 @@
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
-        <v>111</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -4945,10 +4958,21 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>112</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="L6:L8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4963,7 +4987,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5051,8 +5075,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
-        <v>111</v>
+      <c r="B6" s="35">
+        <v>121</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
@@ -5072,9 +5096,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="15">
-        <v>111</v>
-      </c>
+      <c r="B7" s="36"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -5103,9 +5125,7 @@
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
-        <v>111</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -5202,11 +5222,12 @@
       <c r="D18" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="총정리" sheetId="1" r:id="rId1"/>
     <sheet name="111X" sheetId="2" r:id="rId2"/>
     <sheet name="112X" sheetId="3" r:id="rId3"/>
     <sheet name="121X" sheetId="4" r:id="rId4"/>
+    <sheet name="122X" sheetId="5" r:id="rId5"/>
+    <sheet name="211X" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2334,8 +2336,1550 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker images' </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> read-only layers</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>크기</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FC </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마이그레이션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도커</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (read-only + writable layers)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker stats &lt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컨테이너</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&gt;'</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메모리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용량</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>살펴봄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VM1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경해주면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (VM2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관없지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">du </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어려워서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> diff </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮길</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [tar -cvf xxx.tar </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">] </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과임</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무조건</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1MB </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가정</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker images' </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> read-only layers</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>크기</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FC </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마이그레이션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도커</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (read-only + writable layers)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker stats &lt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컨테이너</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&gt;'</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메모리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용량</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>살펴봄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VM1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경해주면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (VM2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관없지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">du </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어려워서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> diff </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮길</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [tar -cvf xxx.tar </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">] </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과임</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무조건</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1MB </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가정</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="68">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -2414,10 +3958,6 @@
   </si>
   <si>
     <t>프로필 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(diff 크기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2617,6 +4157,14 @@
   </si>
   <si>
     <t>20(truncate)+나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170(truncate)+나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(diff 크기)(MB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2956,7 +4504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3001,6 +4549,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3022,13 +4579,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3046,19 +4612,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3116,6 +4676,88 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="4238625"/>
+          <a:ext cx="1952625" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>끼리 전송할때만 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>100ms </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>딜레이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>(send </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>함수에 적용</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3307,12 +4949,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>LR </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>할때 </a:t>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>종종 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -3532,12 +5178,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>LR </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>할때 </a:t>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>종종 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -3757,12 +5407,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>LR </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>할때 </a:t>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>종종 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -3914,6 +5568,772 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3514725" y="2714625"/>
+          <a:ext cx="1609726" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="-1" b="2002"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="1905000"/>
+          <a:ext cx="4981575" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="2076450"/>
+          <a:ext cx="1952625" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>초에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>handoff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>발생</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>간</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> 실험</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2257425"/>
+          <a:ext cx="3105150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>종종 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 종료하면 도커에서 오류가 발생하는데</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>실험에는 지장 없음 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1581149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990599" y="3057526"/>
+          <a:ext cx="2505075" cy="234552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="2543175"/>
+          <a:ext cx="2505075" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1562101</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="2495550"/>
+          <a:ext cx="1609726" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="-1" b="2002"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="1905000"/>
+          <a:ext cx="4981575" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="2076450"/>
+          <a:ext cx="1952625" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>초에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>handoff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>발생</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>간</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> 실험</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2257425"/>
+          <a:ext cx="3105150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>종종 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 종료하면 도커에서 오류가 발생하는데</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>실험에는 지장 없음 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1581149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990599" y="2924175"/>
+          <a:ext cx="2505075" cy="367903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="2543175"/>
+          <a:ext cx="2505075" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1581151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="2705100"/>
           <a:ext cx="1609726" cy="209549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4216,7 +6636,7 @@
   <dimension ref="B4:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4228,22 +6648,22 @@
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -4251,7 +6671,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -4259,7 +6679,7 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -4267,7 +6687,7 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -4275,22 +6695,22 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>111</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="2">
         <v>1</v>
       </c>
@@ -4298,17 +6718,17 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>112</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="3">
         <v>2</v>
       </c>
@@ -4316,17 +6736,17 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>121</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="4">
         <v>3</v>
       </c>
@@ -4334,103 +6754,103 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>122</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="22"/>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>211</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="22"/>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>212</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>221</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>222</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4456,7 +6876,7 @@
   <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4476,45 +6896,45 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
@@ -4525,10 +6945,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -4540,11 +6960,11 @@
         <v>20</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+      <c r="B6" s="31">
         <v>111</v>
       </c>
       <c r="C6" s="15">
@@ -4560,24 +6980,24 @@
         <v>29</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13">
         <v>32.700000000000003</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="11">
         <v>50</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="28">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -4585,28 +7005,28 @@
         <v>909</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="11">
         <v>29</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>66</v>
+      <c r="J7" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -4614,27 +7034,27 @@
         <v>909</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="19">
         <v>5</v>
       </c>
       <c r="I8" s="13">
         <v>32.700000000000003</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="L8" s="27"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -4647,7 +7067,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -4662,7 +7082,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -4697,10 +7117,10 @@
       <c r="B16" s="2">
         <v>111</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4722,7 +7142,7 @@
   <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4742,45 +7162,45 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
@@ -4791,10 +7211,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -4806,11 +7226,11 @@
         <v>20</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+      <c r="B6" s="31">
         <v>112</v>
       </c>
       <c r="C6" s="15">
@@ -4826,24 +7246,24 @@
         <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13">
         <v>32.700000000000003</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="11">
         <v>50</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="28">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -4851,28 +7271,28 @@
         <v>909</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="11">
         <v>28</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>66</v>
+      <c r="J7" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -4880,27 +7300,27 @@
         <v>909</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="19">
         <v>5</v>
       </c>
       <c r="I8" s="13">
         <v>32.700000000000003</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="L8" s="27"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -4913,7 +7333,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -4928,7 +7348,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -4962,10 +7382,10 @@
       <c r="B16" s="3">
         <v>112</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4986,8 +7406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5007,45 +7427,45 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
@@ -5056,10 +7476,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -5071,32 +7491,32 @@
         <v>20</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+      <c r="B6" s="31">
         <v>121</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="25">
+      <c r="D6" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="28">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -5104,28 +7524,28 @@
         <v>909</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="11">
         <v>28</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>66</v>
+      <c r="J7" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -5133,27 +7553,27 @@
         <v>909</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="19">
         <v>10</v>
       </c>
       <c r="I8" s="13">
         <v>32.700000000000003</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="L8" s="27"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -5166,7 +7586,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -5181,7 +7601,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -5213,13 +7633,13 @@
     </row>
     <row r="17" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33">
+      <c r="B18" s="18">
         <v>121</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="32"/>
+      <c r="D18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5235,4 +7655,512 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="31">
+        <v>121</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>909</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="11">
+        <v>50</v>
+      </c>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>909</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
+        <v>10</v>
+      </c>
+      <c r="I8" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="11">
+        <v>50</v>
+      </c>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>122</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="31">
+        <v>121</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>909</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="11">
+        <v>50</v>
+      </c>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>909</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="11">
+        <v>50</v>
+      </c>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>211</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="총정리" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="121X" sheetId="4" r:id="rId4"/>
     <sheet name="122X" sheetId="5" r:id="rId5"/>
     <sheet name="211X" sheetId="6" r:id="rId6"/>
+    <sheet name="212X" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3878,8 +3879,779 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker images' </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> read-only layers</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>크기</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FC </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마이그레이션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도커</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (read-only + writable layers)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker stats &lt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컨테이너</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&gt;'</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메모리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용량</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>살펴봄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VM1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경해주면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (VM2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관없지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">du </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어려워서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> diff </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮길</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [tar -cvf xxx.tar </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">] </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과임</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무조건</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1MB </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가정</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="68">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -4504,7 +5276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4549,6 +5321,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6370,6 +7145,389 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="-1" b="2002"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="1905000"/>
+          <a:ext cx="4981575" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="2076450"/>
+          <a:ext cx="1952625" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>초에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>handoff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>발생</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>간</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> 실험</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2257425"/>
+          <a:ext cx="3105150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>종종 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 종료하면 도커에서 오류가 발생하는데</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>실험에는 지장 없음 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1581149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990599" y="2924175"/>
+          <a:ext cx="2505075" cy="367903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="2543175"/>
+          <a:ext cx="2505075" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1552576</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="2514600"/>
+          <a:ext cx="1609726" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -6707,10 +7865,10 @@
       <c r="B13" s="2">
         <v>111</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="2">
         <v>1</v>
       </c>
@@ -6725,10 +7883,10 @@
       <c r="B14" s="3">
         <v>112</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="3">
         <v>2</v>
       </c>
@@ -6743,10 +7901,10 @@
       <c r="B15" s="3">
         <v>121</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="4">
         <v>3</v>
       </c>
@@ -6761,10 +7919,10 @@
       <c r="B16" s="3">
         <v>122</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="23"/>
       <c r="K16" t="s">
         <v>38</v>
       </c>
@@ -6773,10 +7931,10 @@
       <c r="B17" s="3">
         <v>211</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="23"/>
       <c r="J17" t="s">
         <v>37</v>
       </c>
@@ -6785,28 +7943,28 @@
       <c r="B18" s="3">
         <v>212</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>221</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>222</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -6931,10 +8089,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
@@ -6964,7 +8122,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>111</v>
       </c>
       <c r="C6" s="15">
@@ -6992,12 +8150,12 @@
       <c r="K6" s="11">
         <v>50</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -7017,16 +8175,16 @@
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="21" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -7042,7 +8200,7 @@
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
         <v>5</v>
       </c>
       <c r="I8" s="13">
@@ -7054,7 +8212,7 @@
       <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -7117,10 +8275,10 @@
       <c r="B16" s="2">
         <v>111</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7197,10 +8355,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
@@ -7230,7 +8388,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>112</v>
       </c>
       <c r="C6" s="15">
@@ -7258,12 +8416,12 @@
       <c r="K6" s="11">
         <v>50</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -7283,16 +8441,16 @@
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="21" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -7308,7 +8466,7 @@
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
         <v>5</v>
       </c>
       <c r="I8" s="13">
@@ -7320,7 +8478,7 @@
       <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -7382,10 +8540,10 @@
       <c r="B16" s="3">
         <v>112</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7462,10 +8620,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
@@ -7495,28 +8653,28 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>121</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="28">
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -7536,16 +8694,16 @@
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="21" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -7561,7 +8719,7 @@
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
         <v>10</v>
       </c>
       <c r="I8" s="13">
@@ -7573,7 +8731,7 @@
       <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -7633,13 +8791,13 @@
     </row>
     <row r="17" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>121</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7717,10 +8875,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
@@ -7750,28 +8908,28 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>121</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="39">
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -7791,16 +8949,16 @@
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="21" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -7816,7 +8974,7 @@
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
         <v>10</v>
       </c>
       <c r="I8" s="13">
@@ -7828,7 +8986,7 @@
       <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="L8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -7890,10 +9048,10 @@
       <c r="B18" s="3">
         <v>122</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7915,7 +9073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -7971,10 +9129,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
@@ -8004,28 +9162,28 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>121</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="39">
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -8045,16 +9203,16 @@
       <c r="I7" s="13">
         <v>32.700000000000003</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="21" t="s">
         <v>66</v>
       </c>
       <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -8070,7 +9228,7 @@
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
         <v>5</v>
       </c>
       <c r="I8" s="13">
@@ -8082,7 +9240,7 @@
       <c r="K8" s="11">
         <v>50</v>
       </c>
-      <c r="L8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -8144,10 +9302,264 @@
       <c r="B18" s="3">
         <v>211</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="32">
+        <v>121</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>909</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="11">
+        <v>50</v>
+      </c>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>909</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="11">
+        <v>50</v>
+      </c>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>211</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/프로필-설명.xlsx
+++ b/src/프로필-설명.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="총정리" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="122X" sheetId="5" r:id="rId5"/>
     <sheet name="211X" sheetId="6" r:id="rId6"/>
     <sheet name="212X" sheetId="7" r:id="rId7"/>
+    <sheet name="221X" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4650,8 +4651,779 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker images' </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> read-only layers</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>크기</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FC </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마이그레이션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도커</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (read-only + writable layers)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+'docker stats &lt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컨테이너</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&gt;'</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메모리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용량</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>살펴봄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VM1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경해주면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (VM2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대역폭은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상관없지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">du </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령으로는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어려워서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> diff </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮길</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [tar -cvf xxx.tar </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">] </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과임</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무조건</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1MB </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가정</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="68">
   <si>
     <t>AC-LF/NC-L</t>
   </si>
@@ -7525,6 +8297,521 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="4591050"/>
+          <a:ext cx="3105150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>diff </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>크기가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>180MB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이네</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>...?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>체크포인트랑 더하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>210MB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>네</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="-1" b="2002"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="1905000"/>
+          <a:ext cx="4981575" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="2076450"/>
+          <a:ext cx="1952625" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>초에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t>handoff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>발생</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>간</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> 실험</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2257425"/>
+          <a:ext cx="3105150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>종종 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 종료하면 도커에서 오류가 발생하는데</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>실험에는 지장 없음 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="2543175"/>
+          <a:ext cx="2505075" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1562101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="2714625"/>
+          <a:ext cx="1609726" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="4591050"/>
+          <a:ext cx="3105150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>diff </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>크기가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>180MB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이네</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>...?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>체크포인트랑 더하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>210MB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>네</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7794,7 +9081,7 @@
   <dimension ref="B4:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9327,8 +10614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9575,4 +10862,258 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="32">
+        <v>121</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>909</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="11">
+        <v>50</v>
+      </c>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>909</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20">
+        <v>10</v>
+      </c>
+      <c r="I8" s="13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="11">
+        <v>50</v>
+      </c>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>221</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>